--- a/PREGAME/1. ELICITACION/1.3 Historias de Usuario/G6ª_Matriz_de_Marco_de_Trabajo_HU_V1.0.xlsx
+++ b/PREGAME/1. ELICITACION/1.3 Historias de Usuario/G6ª_Matriz_de_Marco_de_Trabajo_HU_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caeta\Documents\6to\27837_G6_ADS\PREGAME\1. ELICITACION\1.3 Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F74398D-10CB-4C81-9F27-700CE08BAD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDDE95B-CE53-4019-B486-224183186AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -155,9 +155,6 @@
     <t>REQ007</t>
   </si>
   <si>
-    <t>El actor necesita ingresar los detalles de un producto nuevo (nombre, precios, stock, país de origen e imagen) en el sistema.</t>
-  </si>
-  <si>
     <t>Para almacenar y mantener un inventario actualizado de todos los productos disponibles, permitiendo su posterior gestión (edición, consulta, pedidos, etc.).</t>
   </si>
   <si>
@@ -237,6 +234,24 @@
   </si>
   <si>
     <t>Es un proceso de eliminación lógica (actualización de estado, no borrado físico del registro). El sistema debe asegurar que el producto no pueda ser usado en nuevos pedidos una vez desactivado.</t>
+  </si>
+  <si>
+    <t>Se necesita poder modificar la informacion de los productos</t>
+  </si>
+  <si>
+    <t>El actor necesita ingresar los detalles de un producto nuevo.</t>
+  </si>
+  <si>
+    <t>No se puede localizar rápidamente la información de un producto o su stock actual.</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir la consulta y búsqueda por código o nombre de los productos.</t>
+  </si>
+  <si>
+    <t>Los productos descontinuados o agotados siguen apareciendo como opciones activas en el sistema.</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir la desactivación lógica de un producto.</t>
   </si>
 </sst>
 </file>
@@ -840,53 +855,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,6 +885,27 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -944,8 +933,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1660,8 +1675,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1737,22 +1752,22 @@
     </row>
     <row r="3" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1854,44 +1869,44 @@
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="E6" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="68" t="s">
+      <c r="H6" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="68" t="s">
-        <v>40</v>
+      <c r="I6" s="41">
+        <v>2</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="J6" s="42">
+        <v>45879</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="68">
-        <v>2</v>
-      </c>
-      <c r="J6" s="69">
-        <v>45879</v>
-      </c>
-      <c r="K6" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="71" t="s">
+      <c r="N6" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="68" t="s">
+      <c r="O6" s="41" t="s">
         <v>44</v>
-      </c>
-      <c r="O6" s="68" t="s">
-        <v>45</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1907,47 +1922,47 @@
     </row>
     <row r="7" spans="1:26" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="75" t="s">
-        <v>47</v>
+      <c r="F7" s="48" t="s">
+        <v>40</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="G7" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="75" t="s">
-        <v>41</v>
+      <c r="H7" s="48" t="s">
+        <v>55</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="I7" s="48">
+        <v>2</v>
+      </c>
+      <c r="J7" s="49">
+        <v>45879</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="75">
-        <v>2</v>
-      </c>
-      <c r="J7" s="76">
-        <v>45879</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="75" t="s">
+      <c r="N7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="75" t="s">
-        <v>46</v>
+      <c r="O7" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1966,44 +1981,44 @@
       <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="72" t="s">
-        <v>53</v>
+      <c r="F8" s="45" t="s">
+        <v>40</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="G8" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="72" t="s">
-        <v>41</v>
+      <c r="H8" s="45" t="s">
+        <v>56</v>
       </c>
-      <c r="G8" s="73" t="s">
-        <v>55</v>
+      <c r="I8" s="45">
+        <v>1</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="J8" s="47">
+        <v>45879</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="72">
-        <v>1</v>
-      </c>
-      <c r="J8" s="74">
-        <v>45879</v>
-      </c>
-      <c r="K8" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="72" t="s">
+      <c r="N8" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="72" t="s">
-        <v>52</v>
+      <c r="O8" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -2023,22 +2038,22 @@
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>61</v>
+      <c r="F9" s="6" t="s">
+        <v>40</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="G9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="H9" s="41" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="68" t="s">
-        <v>42</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -2053,13 +2068,13 @@
         <v>17</v>
       </c>
       <c r="M9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="O9" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -29953,7 +29968,7 @@
   </sheetPr>
   <dimension ref="A2:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -29981,23 +29996,23 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="52"/>
     </row>
     <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
@@ -30051,15 +30066,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="42"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -30075,17 +30090,17 @@
         <v>15</v>
       </c>
       <c r="D10" s="32"/>
-      <c r="E10" s="53" t="str">
+      <c r="E10" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,5,0)</f>
         <v>Propietario</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="33"/>
-      <c r="H10" s="53" t="str">
+      <c r="H10" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,11,0)</f>
         <v>No iniciado</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="33"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -30130,15 +30145,15 @@
         <v>25</v>
       </c>
       <c r="D12" s="32"/>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="33"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
@@ -30165,17 +30180,17 @@
         <v>2</v>
       </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="53" t="str">
+      <c r="E13" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="53" t="str">
+      <c r="H13" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,7,0)</f>
         <v>Leonardo Narvaez</v>
       </c>
-      <c r="I13" s="42"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="33"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
@@ -30225,34 +30240,34 @@
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="54" t="str">
+      <c r="D15" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,3,0)</f>
         <v>Para almacenar y mantener un inventario actualizado de todos los productos disponibles, permitiendo su posterior gestión (edición, consulta, pedidos, etc.).</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="54" t="str">
+      <c r="H15" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,4,0)</f>
         <v>Para almacenar y mantener un inventario actualizado de todos los productos disponibles, permitiendo su posterior gestión (edición, consulta, pedidos, etc.).</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="44"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="86" t="str">
+      <c r="M15" s="79" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,6,0)</f>
         <v>1. Acceder a la opción de productos. 2. Mostrar formulario con campos obligatorios (Nombre, Precio por libra, País de origen, Precio Mayorista/Minorista por libra, Stock inicial, Imagen). 3. Validar que los campos obligatorios estén completos y en rangos/formatos correctos (Precios: 0.01-99.99, Stock: entero &gt; 0). 4. Generar código de producto (Inicial + Secuencial 01-20, sin reutilización). 5. Almacenar el producto en la BD.</v>
       </c>
-      <c r="N15" s="78"/>
-      <c r="O15" s="79"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -30268,19 +30283,19 @@
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="46"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="36"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="82"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="68"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
@@ -30296,19 +30311,19 @@
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="26"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="36"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="48"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="36"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="85"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="71"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
@@ -30351,42 +30366,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="59" t="str">
+      <c r="D19" s="57"/>
+      <c r="E19" s="80" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,14,0)</f>
         <v>Registrar datos de un nuevo producto</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="82"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="64"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="85"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="19"/>
     </row>
@@ -30411,29 +30426,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="77" t="str">
+      <c r="D22" s="57"/>
+      <c r="E22" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,12,0)</f>
         <v>1. Verificar el registro exitoso en la BD. 2. Intentar guardar sin un campo obligatorio, el campo debe resaltarse en rojo con un mensaje de error. 3. Ingresar un precio fuera de rango o un stock inválido, la casilla debe resaltarse en rojo con un mensaje de alerta. 4. Comprobar que el código de producto generado sea único y siga el formato "Inicial + NXX" (ej. M01). 5. El mensaje final debe ser de "Confirmación de registro".</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="54" t="str">
+      <c r="K22" s="57"/>
+      <c r="L22" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,13,0)</f>
         <v>Se debe implementar una lógica estricta para asegurar que el código generado (Inicial + Secuencial 01-20) no se reutilice nunca, incluso si el producto es eliminado. Gestionar las excepciones de conectividad de BD y carga del formulario.</v>
       </c>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="79"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="65"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
@@ -30449,19 +30464,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="82"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="82"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="68"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -30477,2176 +30492,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
       <c r="I24" s="29"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-    </row>
-    <row r="25" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-    </row>
-    <row r="26" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-    </row>
-    <row r="27" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-    </row>
-    <row r="28" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-    </row>
-    <row r="29" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-    </row>
-    <row r="30" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-    </row>
-    <row r="31" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-    </row>
-    <row r="32" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-    </row>
-    <row r="33" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-    </row>
-    <row r="34" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-    </row>
-    <row r="35" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-    </row>
-    <row r="36" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-    </row>
-    <row r="37" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-    </row>
-    <row r="38" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-    </row>
-    <row r="39" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-    </row>
-    <row r="40" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-    </row>
-    <row r="41" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-    </row>
-    <row r="42" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-    </row>
-    <row r="43" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-    </row>
-    <row r="44" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-    </row>
-    <row r="45" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-    </row>
-    <row r="46" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-    </row>
-    <row r="47" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-    </row>
-    <row r="48" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-    </row>
-    <row r="49" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-    </row>
-    <row r="50" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-    </row>
-    <row r="51" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-    </row>
-    <row r="52" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-    </row>
-    <row r="53" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-    </row>
-    <row r="54" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-    </row>
-    <row r="55" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-    </row>
-    <row r="56" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="E22:H24"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="L22:O24"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
-      <formula>"Terminado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
-      <formula>"En proceso"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>"No Iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>'Formato descripción HU'!$B$6:$B$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>C10:C11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47A69AB-C817-4E13-9282-90B68CFA8E7A}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:Z1000"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="2.69921875" customWidth="1"/>
-    <col min="3" max="15" width="10.69921875" customWidth="1"/>
-    <col min="16" max="16" width="2.69921875" customWidth="1"/>
-    <col min="17" max="26" width="9.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:26" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-    </row>
-    <row r="8" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="53" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,5,0)</f>
-        <v>Propietario</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="53" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,11,0)</f>
-        <v>No iniciado</v>
-      </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-    </row>
-    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-    </row>
-    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="31">
-        <f>VLOOKUP('Historia de Usuario (2)'!C10,'Formato descripción HU'!B6:O23,8,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="53" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,10,0)</f>
-        <v>Alta</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="53" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,7,0)</f>
-        <v>Anthony Morales</v>
-      </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-    </row>
-    <row r="14" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-    </row>
-    <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="54" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,3,0)</f>
-        <v>El actor necesita corregir o modificar la información (precios, stock, nombre, etc.) de un producto que ya ha sido registrado previamente.</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="54" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,4,0)</f>
-        <v>Para mantener la exactitud y vigencia de la información del inventario, reflejando cambios en precios, reposiciones o ajustes de stock.</v>
-      </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="86" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,6,0)</f>
-        <v>1. Acceder a la lista de productos y seleccionar la opción de edición para un producto. 2. Mostrar formulario precargado con los datos actuales. 3. Permitir la modificación de todos los campos excepto el código. 4. Validar que los campos obligatorios y de precio/stock cumplan con los rangos y formatos (Stock resultante debe ser ≥0). 5. Actualizar el registro en la BD.</v>
-      </c>
-      <c r="N15" s="78"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-    </row>
-    <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-    </row>
-    <row r="17" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-    </row>
-    <row r="18" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-    </row>
-    <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="59" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,14,0)</f>
-        <v>Modificar datos de un producto existente.</v>
-      </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="77" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,12,0)</f>
-        <v>1. Verificar que la lista se cargue y permita editar. 2. Intentar guardar sin un campo obligatorio, el campo debe resaltarse en rojo. 3. Intentar ingresar un nuevo valor de stock que resulte en un valor negativo, el sistema debe mostrar un mensaje de error específico y no permitir guardar. 4. Comprobar que los precios cumplan los rangos (0.01 - 99.99) y el formato de dos decimales. 5. Verificar la actualización de los datos en la base de datos y el mensaje de "Confirmación de actualización".</v>
-      </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="54" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,13,0)</f>
-        <v>Se debe poner especial atención a la validación del Stock en la actualización para evitar valores negativos. Las validaciones de precios y obligatoriedad deben ser las mismas que en el registro (R1.1). Gestionar las excepciones de carga de listas/formularios y conectividad de BD.</v>
-      </c>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-    </row>
-    <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-    </row>
-    <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="85"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="71"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
@@ -34207,37 +32065,37 @@
   <mergeCells count="21">
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:O20"/>
     <mergeCell ref="C22:D24"/>
     <mergeCell ref="E22:H24"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="L22:O24"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:J17"/>
     <mergeCell ref="B6:P6"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="L22:O24"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:J17"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Terminado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"En proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"No Iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34248,7 +32106,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{2D6CFCF8-B954-4AE8-8B2A-D22A502A2816}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Formato descripción HU'!$B$6:$B$23</xm:f>
           </x14:formula1>
@@ -34260,15 +32118,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87343460-2DB5-4093-8A55-9295D57D9568}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47A69AB-C817-4E13-9282-90B68CFA8E7A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:O24"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34295,23 +32153,23 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="52"/>
     </row>
     <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
@@ -34365,15 +32223,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="42"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -34386,20 +32244,20 @@
     <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
       <c r="C10" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="32"/>
-      <c r="E10" s="53" t="str">
+      <c r="E10" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,5,0)</f>
         <v>Propietario</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="33"/>
-      <c r="H10" s="53" t="str">
+      <c r="H10" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,11,0)</f>
         <v>No iniciado</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="33"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -34444,15 +32302,15 @@
         <v>25</v>
       </c>
       <c r="D12" s="32"/>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="33"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
@@ -34475,21 +32333,21 @@
       <c r="A13" s="19"/>
       <c r="B13" s="26"/>
       <c r="C13" s="31">
-        <f>VLOOKUP('Historia de Usuario (3)'!C10,'Formato descripción HU'!B6:O23,8,0)</f>
-        <v>1</v>
+        <f>VLOOKUP('Historia de Usuario (2)'!C10,'Formato descripción HU'!B6:O23,8,0)</f>
+        <v>2</v>
       </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="53" t="str">
+      <c r="E13" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="53" t="str">
+      <c r="H13" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,7,0)</f>
-        <v>Julio Viche</v>
+        <v>Anthony Morales</v>
       </c>
-      <c r="I13" s="42"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="33"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
@@ -34539,34 +32397,34 @@
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="54" t="str">
+      <c r="D15" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,3,0)</f>
-        <v>El actor necesita encontrar, ver y verificar los detalles de un producto específico o un grupo de productos registrados en el sistema.</v>
+        <v>El actor necesita corregir o modificar la información (precios, stock, nombre, etc.) de un producto que ya ha sido registrado previamente.</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="54" t="str">
+      <c r="H15" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,4,0)</f>
-        <v>Para verificar el stock, precios, y otros datos del producto antes de realizar pedidos, actualizaciones, o simplemente para conocer la información disponible.</v>
+        <v>Para mantener la exactitud y vigencia de la información del inventario, reflejando cambios en precios, reposiciones o ajustes de stock.</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="44"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="58" t="str">
+      <c r="M15" s="79" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,6,0)</f>
-        <v>1. Acceder a la lista de productos. 2. Permitir la búsqueda por Código (exacto) o Nombre (parcial). 3. Priorizar la búsqueda por código si el formato lo sugiere. 4. Mostrar la lista de coincidencias o el detalle completo del producto encontrado.</v>
+        <v>1. Acceder a la lista de productos y seleccionar la opción de edición para un producto. 2. Mostrar formulario precargado con los datos actuales. 3. Permitir la modificación de todos los campos excepto el código. 4. Validar que los campos obligatorios y de precio/stock cumplan con los rangos y formatos (Stock resultante debe ser ≥0). 5. Actualizar el registro en la BD.</v>
       </c>
-      <c r="N15" s="49"/>
-      <c r="O15" s="44"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -34582,19 +32440,19 @@
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="46"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="36"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="46"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="68"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
@@ -34607,22 +32465,22 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
     </row>
-    <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="26"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="36"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="48"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="36"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="48"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="71"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
@@ -34665,42 +32523,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="59" t="str">
+      <c r="D19" s="57"/>
+      <c r="E19" s="80" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,14,0)</f>
-        <v>Consultar y buscar productos registrados.</v>
+        <v>Modificar datos de un producto existente.</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="82"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="64"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="85"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="19"/>
     </row>
@@ -34725,29 +32583,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="77" t="str">
+      <c r="D22" s="57"/>
+      <c r="E22" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,12,0)</f>
-        <v>1. Buscar por un código exacto, debe mostrar el detalle único del producto. 2. Buscar por una coincidencia parcial de nombre, debe mostrar una lista de resultados. 3. Buscar por un criterio inexistente, debe mostrar el mensaje de advertencia de "No existe ningún producto con ese criterio". 4. Verificar el manejo de la excepción de no carga de la lista.</v>
+        <v>1. Verificar que la lista se cargue y permita editar. 2. Intentar guardar sin un campo obligatorio, el campo debe resaltarse en rojo. 3. Intentar ingresar un nuevo valor de stock que resulte en un valor negativo, el sistema debe mostrar un mensaje de error específico y no permitir guardar. 4. Comprobar que los precios cumplan los rangos (0.01 - 99.99) y el formato de dos decimales. 5. Verificar la actualización de los datos en la base de datos y el mensaje de "Confirmación de actualización".</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="54" t="str">
+      <c r="K22" s="57"/>
+      <c r="L22" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,13,0)</f>
-        <v>La lógica de búsqueda debe priorizar la coincidencia de código antes de la coincidencia parcial de nombre. Se debe asegurar que la información cargada sea la más reciente de la base de datos.</v>
+        <v>Se debe poner especial atención a la validación del Stock en la actualización para evitar valores negativos. Las validaciones de precios y obligatoriedad deben ser las mismas que en el registro (R1.1). Gestionar las excepciones de carga de listas/formularios y conectividad de BD.</v>
       </c>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="79"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="65"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
@@ -34763,19 +32621,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="82"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="82"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="68"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -34791,19 +32649,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
       <c r="I24" s="29"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="85"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="71"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
@@ -36362,6 +34220,19 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:J17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:O17"/>
     <mergeCell ref="C19:D20"/>
@@ -36370,31 +34241,18 @@
     <mergeCell ref="E22:H24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="L22:O24"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:J17"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Terminado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"En proceso"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"No Iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36405,7 +34263,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{DE283704-0CE1-4B1D-8066-39396CFAA244}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{2D6CFCF8-B954-4AE8-8B2A-D22A502A2816}">
           <x14:formula1>
             <xm:f>'Formato descripción HU'!$B$6:$B$23</xm:f>
           </x14:formula1>
@@ -36417,15 +34275,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5667BDE-1DA1-42D3-8554-F63D27F4A1AB}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87343460-2DB5-4093-8A55-9295D57D9568}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15:O17"/>
+      <selection activeCell="L22" sqref="L22:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36452,23 +34310,23 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="52"/>
     </row>
     <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
@@ -36522,15 +34380,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="42"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -36543,20 +34401,20 @@
     <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
       <c r="C10" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="32"/>
-      <c r="E10" s="53" t="str">
+      <c r="E10" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,5,0)</f>
         <v>Propietario</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="33"/>
-      <c r="H10" s="53" t="str">
+      <c r="H10" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,11,0)</f>
         <v>No iniciado</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="33"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -36601,15 +34459,15 @@
         <v>25</v>
       </c>
       <c r="D12" s="32"/>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="33"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
@@ -36632,21 +34490,21 @@
       <c r="A13" s="19"/>
       <c r="B13" s="26"/>
       <c r="C13" s="31">
-        <f>VLOOKUP('Historia de Usuario (4)'!C10,'Formato descripción HU'!B6:O23,8,0)</f>
+        <f>VLOOKUP('Historia de Usuario (3)'!C10,'Formato descripción HU'!B6:O23,8,0)</f>
         <v>1</v>
       </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="53" t="str">
+      <c r="E13" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="53" t="str">
+      <c r="H13" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,7,0)</f>
-        <v>Leonardo Narvaez</v>
+        <v>Julio Viche</v>
       </c>
-      <c r="I13" s="42"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="33"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
@@ -36696,34 +34554,34 @@
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="54" t="str">
+      <c r="D15" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,3,0)</f>
-        <v>El actor necesita sacar de circulación o desactivar un producto que ya no se va a vender o gestionar.</v>
+        <v>El sistema deberá permitir la consulta y búsqueda por código o nombre de los productos.</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="54" t="str">
+      <c r="H15" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,4,0)</f>
-        <v>Para mantener la lista de productos activos limpia y evitar que productos obsoletos o descontinuados puedan ser asociados a nuevos pedidos.</v>
+        <v>Para verificar el stock, precios, y otros datos del producto antes de realizar pedidos, actualizaciones, o simplemente para conocer la información disponible.</v>
       </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="44"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="53" t="s">
         <v>29</v>
       </c>
       <c r="M15" s="86" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,6,0)</f>
-        <v>1. Acceder a la lista de productos. 2. Seleccionar la opción de eliminar para un producto. 3. Mostrar mensaje de confirmación/advertencia. 4. Si se confirma, actualizar el estado del producto en la BD para desactivarlo lógicamente (cambio de estado/ flag de activo a inactivo). 5. Mostrar mensaje de confirmación.</v>
+        <v>1. Acceder a la lista de productos. 2. Permitir la búsqueda por Código (exacto) o Nombre (parcial). 3. Priorizar la búsqueda por código si el formato lo sugiere. 4. Mostrar la lista de coincidencias o el detalle completo del producto encontrado.</v>
       </c>
-      <c r="N15" s="78"/>
-      <c r="O15" s="79"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="57"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -36739,19 +34597,19 @@
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="46"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="36"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="82"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="62"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
@@ -36767,19 +34625,19 @@
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="26"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="36"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="48"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="36"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="85"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="59"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
@@ -36822,42 +34680,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="59" t="str">
+      <c r="D19" s="57"/>
+      <c r="E19" s="80" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,14,0)</f>
-        <v>Desactivar lógicamente un producto del inventario.</v>
+        <v>Consultar y buscar productos registrados.</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="82"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="64"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="85"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="19"/>
     </row>
@@ -36882,29 +34740,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="77" t="str">
+      <c r="D22" s="57"/>
+      <c r="E22" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,12,0)</f>
-        <v>1. Verificar que al seleccionar eliminar se muestre el mensaje de advertencia y confirmación. 2. Verificar que al confirmar la eliminación, el registro no sea eliminado físicamente de la BD, sino que solo se actualice su estado a 'Inactivo'/'Eliminado' o similar. 3. Verificar que el producto ya no aparezca en la lista de productos activos (u otras consultas de productos disponibles).</v>
+        <v>1. Buscar por un código exacto, debe mostrar el detalle único del producto. 2. Buscar por una coincidencia parcial de nombre, debe mostrar una lista de resultados. 3. Buscar por un criterio inexistente, debe mostrar el mensaje de advertencia de "No existe ningún producto con ese criterio". 4. Verificar el manejo de la excepción de no carga de la lista.</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="54" t="str">
+      <c r="K22" s="57"/>
+      <c r="L22" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,13,0)</f>
-        <v>Es un proceso de eliminación lógica (actualización de estado, no borrado físico del registro). El sistema debe asegurar que el producto no pueda ser usado en nuevos pedidos una vez desactivado.</v>
+        <v>La lógica de búsqueda debe priorizar la coincidencia de código antes de la coincidencia parcial de nombre. Se debe asegurar que la información cargada sea la más reciente de la base de datos.</v>
       </c>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="79"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="65"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
@@ -36920,19 +34778,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="82"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="82"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="68"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -36948,19 +34806,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
       <c r="I24" s="29"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="85"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="71"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
@@ -38519,6 +36377,19 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:J17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:O17"/>
     <mergeCell ref="C19:D20"/>
@@ -38527,19 +36398,2163 @@
     <mergeCell ref="E22:H24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="L22:O24"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H10:I11">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"Terminado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"En proceso"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"No Iniciado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{DE283704-0CE1-4B1D-8066-39396CFAA244}">
+          <x14:formula1>
+            <xm:f>'Formato descripción HU'!$B$6:$B$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10:C11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5667BDE-1DA1-42D3-8554-F63D27F4A1AB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:Z1000"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15:O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="2.69921875" customWidth="1"/>
+    <col min="3" max="15" width="10.69921875" customWidth="1"/>
+    <col min="16" max="16" width="2.69921875" customWidth="1"/>
+    <col min="17" max="26" width="9.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:26" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="52"/>
+    </row>
+    <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+    </row>
+    <row r="8" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
+      <c r="C10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="74" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,5,0)</f>
+        <v>Propietario</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="74" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,11,0)</f>
+        <v>No iniciado</v>
+      </c>
+      <c r="I10" s="52"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+    </row>
+    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+    </row>
+    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="31">
+        <f>VLOOKUP('Historia de Usuario (4)'!C10,'Formato descripción HU'!B6:O23,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="74" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,10,0)</f>
+        <v>Alta</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="74" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,7,0)</f>
+        <v>Leonardo Narvaez</v>
+      </c>
+      <c r="I13" s="52"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+    </row>
+    <row r="14" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+    </row>
+    <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="75" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,3,0)</f>
+        <v>El sistema deberá permitir la desactivación lógica de un producto.</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="75" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,4,0)</f>
+        <v>Para mantener la lista de productos activos limpia y evitar que productos obsoletos o descontinuados puedan ser asociados a nuevos pedidos.</v>
+      </c>
+      <c r="I15" s="76"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="79" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,6,0)</f>
+        <v>1. Acceder a la lista de productos. 2. Seleccionar la opción de eliminar para un producto. 3. Mostrar mensaje de confirmación/advertencia. 4. Si se confirma, actualizar el estado del producto en la BD para desactivarlo lógicamente (cambio de estado/ flag de activo a inactivo). 5. Mostrar mensaje de confirmación.</v>
+      </c>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+    </row>
+    <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+    </row>
+    <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+    </row>
+    <row r="18" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+    </row>
+    <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="26"/>
+      <c r="C19" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="80" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,14,0)</f>
+        <v>Desactivar lógicamente un producto del inventario.</v>
+      </c>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="63" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,12,0)</f>
+        <v>1. Verificar que al seleccionar eliminar se muestre el mensaje de advertencia y confirmación. 2. Verificar que al confirmar la eliminación, el registro no sea eliminado físicamente de la BD, sino que solo se actualice su estado a 'Inactivo'/'Eliminado' o similar. 3. Verificar que el producto ya no aparezca en la lista de productos activos (u otras consultas de productos disponibles).</v>
+      </c>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="57"/>
+      <c r="L22" s="75" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,13,0)</f>
+        <v>Es un proceso de eliminación lógica (actualización de estado, no borrado físico del registro). El sistema debe asegurar que el producto no pueda ser usado en nuevos pedidos una vez desactivado.</v>
+      </c>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+    </row>
+    <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+    </row>
+    <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+    </row>
+    <row r="25" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+    </row>
+    <row r="26" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+    </row>
+    <row r="27" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+    </row>
+    <row r="28" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+    </row>
+    <row r="29" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+    </row>
+    <row r="30" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+    </row>
+    <row r="31" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+    </row>
+    <row r="32" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+    </row>
+    <row r="33" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+    </row>
+    <row r="34" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+    </row>
+    <row r="38" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+    </row>
+    <row r="39" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+    </row>
+    <row r="40" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+    </row>
+    <row r="41" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+    </row>
+    <row r="42" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+    </row>
+    <row r="43" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+    </row>
+    <row r="44" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="45" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+    </row>
+    <row r="46" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+    </row>
+    <row r="47" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+    </row>
+    <row r="48" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+    </row>
+    <row r="49" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+    </row>
+    <row r="50" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+    </row>
+    <row r="51" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+    </row>
+    <row r="52" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+    </row>
+    <row r="53" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+    </row>
+    <row r="54" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+    </row>
+    <row r="55" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+    </row>
+    <row r="56" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="C22:D24"/>
+    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="L22:O24"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/PREGAME/1. ELICITACION/1.3 Historias de Usuario/G6ª_Matriz_de_Marco_de_Trabajo_HU_V1.0.xlsx
+++ b/PREGAME/1. ELICITACION/1.3 Historias de Usuario/G6ª_Matriz_de_Marco_de_Trabajo_HU_V1.0.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caeta\Documents\6to\27837_G6_ADS\PREGAME\1. ELICITACION\1.3 Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDDE95B-CE53-4019-B486-224183186AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6D0ABC-0681-4B8F-93E0-EE4DD8FEFD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
     <sheet name="Historia de Usuario" sheetId="2" r:id="rId2"/>
-    <sheet name="Historia de Usuario (2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Historia de Usuario (3)" sheetId="4" r:id="rId4"/>
-    <sheet name="Historia de Usuario (4)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="171">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -155,103 +152,403 @@
     <t>REQ007</t>
   </si>
   <si>
-    <t>Para almacenar y mantener un inventario actualizado de todos los productos disponibles, permitiendo su posterior gestión (edición, consulta, pedidos, etc.).</t>
-  </si>
-  <si>
-    <t>1. Acceder a la opción de productos. 2. Mostrar formulario con campos obligatorios (Nombre, Precio por libra, País de origen, Precio Mayorista/Minorista por libra, Stock inicial, Imagen). 3. Validar que los campos obligatorios estén completos y en rangos/formatos correctos (Precios: 0.01-99.99, Stock: entero &gt; 0). 4. Generar código de producto (Inicial + Secuencial 01-20, sin reutilización). 5. Almacenar el producto en la BD.</t>
-  </si>
-  <si>
     <t>Propietario</t>
   </si>
   <si>
     <t>Leonardo Narvaez</t>
   </si>
   <si>
-    <t>1. Verificar el registro exitoso en la BD. 2. Intentar guardar sin un campo obligatorio, el campo debe resaltarse en rojo con un mensaje de error. 3. Ingresar un precio fuera de rango o un stock inválido, la casilla debe resaltarse en rojo con un mensaje de alerta. 4. Comprobar que el código de producto generado sea único y siga el formato "Inicial + NXX" (ej. M01). 5. El mensaje final debe ser de "Confirmación de registro".</t>
+    <t/>
   </si>
   <si>
-    <t>Se debe implementar una lógica estricta para asegurar que el código generado (Inicial + Secuencial 01-20) no se reutilice nunca, incluso si el producto es eliminado. Gestionar las excepciones de conectividad de BD y carga del formulario.</t>
+    <t>El sistema debe permitir registrar productos nuevos</t>
   </si>
   <si>
-    <t>Registrar datos de un nuevo producto</t>
+    <t>Registrar nombre, precios, país de origen, stock e imagen del producto</t>
   </si>
   <si>
-    <t>Modificar datos de un producto existente.</t>
+    <t>Para gestionar el inventario y controlar productos disponibles</t>
   </si>
   <si>
-    <t>El actor necesita corregir o modificar la información (precios, stock, nombre, etc.) de un producto que ya ha sido registrado previamente.</t>
+    <t>Ingresar datos del producto en formulario, el sistema genera código automático y valida información antes de guardar</t>
   </si>
   <si>
-    <t>Para mantener la exactitud y vigencia de la información del inventario, reflejando cambios en precios, reposiciones o ajustes de stock.</t>
+    <t>Validar campos obligatorios, rangos de precios (0.01-99.99), stock mayor a 0. Verificar código único generado y mensaje de confirmación.</t>
   </si>
   <si>
-    <t>1. Acceder a la lista de productos y seleccionar la opción de edición para un producto. 2. Mostrar formulario precargado con los datos actuales. 3. Permitir la modificación de todos los campos excepto el código. 4. Validar que los campos obligatorios y de precio/stock cumplan con los rangos y formatos (Stock resultante debe ser ≥0). 5. Actualizar el registro en la BD.</t>
+    <t>Códigos de producto no se reutilizan al eliminar</t>
   </si>
   <si>
-    <t>1. Verificar que la lista se cargue y permita editar. 2. Intentar guardar sin un campo obligatorio, el campo debe resaltarse en rojo. 3. Intentar ingresar un nuevo valor de stock que resulte en un valor negativo, el sistema debe mostrar un mensaje de error específico y no permitir guardar. 4. Comprobar que los precios cumplan los rangos (0.01 - 99.99) y el formato de dos decimales. 5. Verificar la actualización de los datos en la base de datos y el mensaje de "Confirmación de actualización".</t>
+    <t>Registrar Producto</t>
   </si>
   <si>
-    <t>Se debe poner especial atención a la validación del Stock en la actualización para evitar valores negativos. Las validaciones de precios y obligatoriedad deben ser las mismas que en el registro (R1.1). Gestionar las excepciones de carga de listas/formularios y conectividad de BD.</t>
+    <t>El sistema debe permitir actualizar datos de productos registrados</t>
   </si>
   <si>
-    <t>Consultar y buscar productos registrados.</t>
+    <t>Modificar nombre, precios, país, stock o imagen de productos existentes</t>
   </si>
   <si>
-    <t>El actor necesita encontrar, ver y verificar los detalles de un producto específico o un grupo de productos registrados en el sistema.</t>
+    <t>Para mantener actualizada la información del inventario</t>
   </si>
   <si>
-    <t>Para verificar el stock, precios, y otros datos del producto antes de realizar pedidos, actualizaciones, o simplemente para conocer la información disponible.</t>
+    <t>Seleccionar producto de lista, editar campos en formulario y guardar cambios validados</t>
   </si>
   <si>
-    <t>1. Acceder a la lista de productos. 2. Permitir la búsqueda por Código (exacto) o Nombre (parcial). 3. Priorizar la búsqueda por código si el formato lo sugiere. 4. Mostrar la lista de coincidencias o el detalle completo del producto encontrado.</t>
+    <t>Validar que actualización cumpla mismas reglas que registro. Stock no puede ser negativo. Mensaje de confirmación al actualizar.</t>
   </si>
   <si>
-    <t>Anthony Morales</t>
+    <t>Permite incrementos y decrementos de stock con validaciones</t>
   </si>
   <si>
-    <t>Julio Viche</t>
+    <t>Actualizar Producto</t>
   </si>
   <si>
-    <t>1. Buscar por un código exacto, debe mostrar el detalle único del producto. 2. Buscar por una coincidencia parcial de nombre, debe mostrar una lista de resultados. 3. Buscar por un criterio inexistente, debe mostrar el mensaje de advertencia de "No existe ningún producto con ese criterio". 4. Verificar el manejo de la excepción de no carga de la lista.</t>
+    <t>El sistema debe permitir consultar información de productos</t>
   </si>
   <si>
-    <t>La lógica de búsqueda debe priorizar la coincidencia de código antes de la coincidencia parcial de nombre. Se debe asegurar que la información cargada sea la más reciente de la base de datos.</t>
+    <t>Buscar productos por nombre o código y visualizar su información completa</t>
   </si>
   <si>
-    <t>Desactivar lógicamente un producto del inventario.</t>
+    <t>Para revisar disponibilidad y detalles de productos registrados</t>
   </si>
   <si>
-    <t>El actor necesita sacar de circulación o desactivar un producto que ya no se va a vender o gestionar.</t>
+    <t>Ingresar criterio de búsqueda (nombre o código), sistema muestra resultados coincidentes</t>
   </si>
   <si>
-    <t>Para mantener la lista de productos activos limpia y evitar que productos obsoletos o descontinuados puedan ser asociados a nuevos pedidos.</t>
+    <t>Búsqueda por código exacto muestra un producto. Búsqueda por nombre muestra coincidencias parciales. Mensaje si no hay resultados.</t>
   </si>
   <si>
-    <t>1. Acceder a la lista de productos. 2. Seleccionar la opción de eliminar para un producto. 3. Mostrar mensaje de confirmación/advertencia. 4. Si se confirma, actualizar el estado del producto en la BD para desactivarlo lógicamente (cambio de estado/ flag de activo a inactivo). 5. Mostrar mensaje de confirmación.</t>
+    <t>Búsqueda por código prioritaria si tiene formato letra+dígitos</t>
   </si>
   <si>
-    <t>1. Verificar que al seleccionar eliminar se muestre el mensaje de advertencia y confirmación. 2. Verificar que al confirmar la eliminación, el registro no sea eliminado físicamente de la BD, sino que solo se actualice su estado a 'Inactivo'/'Eliminado' o similar. 3. Verificar que el producto ya no aparezca en la lista de productos activos (u otras consultas de productos disponibles).</t>
+    <t>Consultar Producto</t>
   </si>
   <si>
-    <t>Es un proceso de eliminación lógica (actualización de estado, no borrado físico del registro). El sistema debe asegurar que el producto no pueda ser usado en nuevos pedidos una vez desactivado.</t>
+    <t>El sistema debe permitir desactivar productos</t>
   </si>
   <si>
-    <t>Se necesita poder modificar la informacion de los productos</t>
+    <t>Marcar productos como inactivos sin eliminarlos físicamente</t>
   </si>
   <si>
-    <t>El actor necesita ingresar los detalles de un producto nuevo.</t>
+    <t>Para mantener historial y evitar uso en nuevas transacciones</t>
   </si>
   <si>
-    <t>No se puede localizar rápidamente la información de un producto o su stock actual.</t>
+    <t>Seleccionar producto, confirmar eliminación, sistema actualiza estado a Inactivo</t>
   </si>
   <si>
-    <t>El sistema deberá permitir la consulta y búsqueda por código o nombre de los productos.</t>
+    <t>Producto marcado como Inactivo no aparece en selecciones futuras pero conserva historial. Confirmación de desactivación exitosa.</t>
   </si>
   <si>
-    <t>Los productos descontinuados o agotados siguen apareciendo como opciones activas en el sistema.</t>
+    <t>Código del producto no se libera para reutilización</t>
   </si>
   <si>
-    <t>El sistema deberá permitir la desactivación lógica de un producto.</t>
+    <t>Eliminar Producto</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir registrar clientes nuevos</t>
+  </si>
+  <si>
+    <t>Registrar nombre, identificación, correo, teléfono y dirección del cliente</t>
+  </si>
+  <si>
+    <t>Para gestionar información de clientes y asociarlos a pedidos</t>
+  </si>
+  <si>
+    <t>Ingresar datos del cliente en formulario, validar formatos y guardar en base de datos</t>
+  </si>
+  <si>
+    <t>Validar campos obligatorios, formato de cédula/RUC/pasaporte, email y teléfono válidos. Identificación única. Mensaje de confirmación.</t>
+  </si>
+  <si>
+    <t>Todos los campos son obligatorios</t>
+  </si>
+  <si>
+    <t>Registrar Cliente</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir actualizar datos de clientes</t>
+  </si>
+  <si>
+    <t>Modificar información de clientes registrados</t>
+  </si>
+  <si>
+    <t>Para mantener datos de clientes actualizados</t>
+  </si>
+  <si>
+    <t>Seleccionar cliente de lista, editar campos y guardar cambios validados</t>
+  </si>
+  <si>
+    <t>Validar mismas reglas que registro. Verificar formatos de identificación, email y teléfono. Mensaje de confirmación.</t>
+  </si>
+  <si>
+    <t>Actualizar Cliente</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir consultar información de clientes</t>
+  </si>
+  <si>
+    <t>Buscar clientes por nombre o identificación</t>
+  </si>
+  <si>
+    <t>Para revisar información de clientes registrados</t>
+  </si>
+  <si>
+    <t>Ingresar criterio de búsqueda, sistema muestra resultados coincidentes</t>
+  </si>
+  <si>
+    <t>Búsqueda exacta o parcial muestra clientes coincidentes. Mensaje si no hay resultados.</t>
+  </si>
+  <si>
+    <t>Consultar Cliente</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir desactivar clientes</t>
+  </si>
+  <si>
+    <t>Marcar clientes como inactivos lógicamente</t>
+  </si>
+  <si>
+    <t>Para excluirlos de nuevas selecciones pero mantener historial</t>
+  </si>
+  <si>
+    <t>Seleccionar cliente, confirmar eliminación, actualizar estado a Inactivo</t>
+  </si>
+  <si>
+    <t>Cliente marcado Inactivo no disponible para nuevos pedidos. Historial se conserva. Mensaje de confirmación.</t>
+  </si>
+  <si>
+    <t>Puede alternarse vista entre clientes Activos e Inactivos</t>
+  </si>
+  <si>
+    <t>Eliminar Cliente</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir registrar pedidos nuevos</t>
+  </si>
+  <si>
+    <t>Asociar cliente, productos, cantidades y calcular totales del pedido</t>
+  </si>
+  <si>
+    <t>Para gestionar ventas y controlar inventario</t>
+  </si>
+  <si>
+    <t>Seleccionar cliente y productos, especificar cantidades, sistema calcula totales y guarda pedido</t>
+  </si>
+  <si>
+    <t>Validar cliente seleccionado, productos con cantidad mayor a 0, stock disponible, formato de fecha DD/MM/AAAA. Confirmación y ID único generado.</t>
+  </si>
+  <si>
+    <t>Fecha auto-completada con fecha actual pero editable</t>
+  </si>
+  <si>
+    <t>Registrar Pedido</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir actualizar pedidos existentes</t>
+  </si>
+  <si>
+    <t>Modificar cliente o productos de un pedido registrado</t>
+  </si>
+  <si>
+    <t>Para corregir errores o ajustar pedidos antes de completarlos</t>
+  </si>
+  <si>
+    <t>Seleccionar pedido, editar datos, sistema recalcula totales y actualiza inventario</t>
+  </si>
+  <si>
+    <t>Validar cliente y productos válidos, stock disponible para aumentos. Recalculo correcto de totales. Mensaje de confirmación.</t>
+  </si>
+  <si>
+    <t>Ajusta inventario por aumentos o disminuciones de cantidades</t>
+  </si>
+  <si>
+    <t>Actualizar Pedido</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir consultar información de pedidos</t>
+  </si>
+  <si>
+    <t>Buscar y visualizar detalles de pedidos por filtros</t>
+  </si>
+  <si>
+    <t>Para revisar historial y estado de pedidos</t>
+  </si>
+  <si>
+    <t>Aplicar filtros (ID, cliente, fechas, estado), sistema muestra resultados</t>
+  </si>
+  <si>
+    <t>Filtros funcionan correctamente. Visualización completa de información del pedido. Mensaje si no hay resultados.</t>
+  </si>
+  <si>
+    <t>Interfaz intuitiva para filtrado</t>
+  </si>
+  <si>
+    <t>Consultar Pedido</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir eliminar pedidos</t>
+  </si>
+  <si>
+    <t>Cancelar pedidos y revertir cambios en inventario</t>
+  </si>
+  <si>
+    <t>Para anular pedidos incorrectos y restaurar stock</t>
+  </si>
+  <si>
+    <t>Seleccionar pedido, confirmar eliminación, actualizar estado a Cancelado y revertir stock</t>
+  </si>
+  <si>
+    <t>Pedido marcado como Cancelado. Stock revertido correctamente. Historial conservado. Mensaje de confirmación.</t>
+  </si>
+  <si>
+    <t>Eliminación lógica que conserva historial</t>
+  </si>
+  <si>
+    <t>Eliminar Pedido</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir controlar el estado de pedidos</t>
+  </si>
+  <si>
+    <t>Actualizar estado del pedido según avance</t>
+  </si>
+  <si>
+    <t>Para seguimiento del proceso de cada pedido</t>
+  </si>
+  <si>
+    <t>Seleccionar pedido, elegir nuevo estado de opciones permitidas, actualizar</t>
+  </si>
+  <si>
+    <t>Validar transiciones permitidas entre estados. No permitir cambios desde Completado o Cancelado. Mensaje de confirmación.</t>
+  </si>
+  <si>
+    <t>Estados: Pendiente, En Proceso, En Espera, Completado, Cancelado</t>
+  </si>
+  <si>
+    <t>Controlar Estado de Pedido</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir generar reportes de pedidos</t>
+  </si>
+  <si>
+    <t>Exportar datos de pedidos filtrados a archivo Excel</t>
+  </si>
+  <si>
+    <t>Para análisis de ventas y toma de decisiones</t>
+  </si>
+  <si>
+    <t>Aplicar filtros deseados, generar reporte, descargar archivo Excel con información completa</t>
+  </si>
+  <si>
+    <t>Archivo Excel generado con información correcta según filtros. Incluye datos de pedido, cliente, productos, totales y resúmenes.</t>
+  </si>
+  <si>
+    <t>Incluye agregados como total de ventas y productos vendidos</t>
+  </si>
+  <si>
+    <t>Generar Reporte de Pedidos</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir crear mezclas personalizadas</t>
+  </si>
+  <si>
+    <t>Seleccionar productos, especificar cantidades y calcular precio total de mezcla</t>
+  </si>
+  <si>
+    <t>Para ofrecer productos personalizados a clientes</t>
+  </si>
+  <si>
+    <t>Seleccionar productos, ingresar cantidades en libras, sistema calcula precio dinámicamente</t>
+  </si>
+  <si>
+    <t>Productos añadidos correctamente. Cantidades válidas y stock disponible. Cálculo de precio correcto. Opciones de guardar o agregar a pedido funcionan.</t>
+  </si>
+  <si>
+    <t>Nombre de mezcla: 3-25 caracteres alfanuméricos</t>
+  </si>
+  <si>
+    <t>Crear Nueva Mezcla Personalizada</t>
+  </si>
+  <si>
+    <t>REQ008</t>
+  </si>
+  <si>
+    <t>REQ009</t>
+  </si>
+  <si>
+    <t>REQ010</t>
+  </si>
+  <si>
+    <t>REQ011</t>
+  </si>
+  <si>
+    <t>REQ012</t>
+  </si>
+  <si>
+    <t>REQ013</t>
+  </si>
+  <si>
+    <t>REQ014</t>
+  </si>
+  <si>
+    <t>REQ015</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir consultar mezclas personalizadas</t>
+  </si>
+  <si>
+    <t>Visualizar mezclas guardadas y recibir recomendaciones</t>
+  </si>
+  <si>
+    <t>Para reutilizar mezclas y sugerir combinaciones basadas en historial</t>
+  </si>
+  <si>
+    <t>Ver mezclas predefinidas y guardadas, recibir sugerencias, ajustar cantidades</t>
+  </si>
+  <si>
+    <t>Mezclas guardadas se muestran correctamente. Recomendaciones basadas en historial. Cálculos dinámicos de precio y nutrición funcionan.</t>
+  </si>
+  <si>
+    <t>Recomendaciones simples basadas en compras frecuentes</t>
+  </si>
+  <si>
+    <t>Consultar Mezclas Personalizadas</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir guardar mezclas personalizadas</t>
+  </si>
+  <si>
+    <t>Almacenar mezclas diseñadas para uso futuro</t>
+  </si>
+  <si>
+    <t>Para reutilizar combinaciones favoritas en pedidos futuros</t>
+  </si>
+  <si>
+    <t>Diseñar mezcla, ingresar nombre único, guardar en perfil</t>
+  </si>
+  <si>
+    <t>Nombre no vacío y no excede 100 caracteres. Mezcla guardada en base de datos. Mensaje de confirmación.</t>
+  </si>
+  <si>
+    <t>Mezclas guardadas no afectan stock hasta usarse en pedido</t>
+  </si>
+  <si>
+    <t>Guardar Mezcla Personalizada</t>
+  </si>
+  <si>
+    <t>REQ016</t>
+  </si>
+  <si>
+    <t>REQ017</t>
+  </si>
+  <si>
+    <t>Caetano Flores</t>
+  </si>
+  <si>
+    <t>AnthonyMorales</t>
+  </si>
+  <si>
+    <t>Jordan Guaman</t>
   </si>
 </sst>
 </file>
@@ -764,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -895,18 +1192,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,24 +1219,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,146 +1227,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1218,249 +1380,6 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1066800" cy="1162050"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71BAB5C1-5982-4126-B503-AF5C0D6C7450}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10443210" y="1203960"/>
-          <a:ext cx="1066800" cy="1162050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1095375" cy="1162050"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image2.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C8F37C-BC92-42ED-A5CC-328E59DA82A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8479155" y="1203960"/>
-          <a:ext cx="1095375" cy="1162050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1066800" cy="1162050"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609EF2E7-BA25-4456-AB66-C6B870D7AC86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10443210" y="1203960"/>
-          <a:ext cx="1066800" cy="1162050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1095375" cy="1162050"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image2.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30715B7-4598-40D2-BA6B-9D6446746FFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8479155" y="1203960"/>
-          <a:ext cx="1095375" cy="1162050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1066800" cy="1162050"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3A97BC-5047-452D-B811-BE2203FB3E30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10443210" y="1203960"/>
-          <a:ext cx="1066800" cy="1162050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1095375" cy="1162050"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image2.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90843B2-8EAF-403C-9903-72B8E01224EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8479155" y="1203960"/>
-          <a:ext cx="1095375" cy="1162050"/>
-        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1675,8 +1594,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" topLeftCell="D12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1864,34 +1783,35 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="138" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>38</v>
+      <c r="G6" s="41" t="s">
+        <v>44</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="41" t="s">
+      <c r="H6" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="41" t="s">
-        <v>41</v>
-      </c>
       <c r="I6" s="41">
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(4,14)</f>
+        <v>6</v>
       </c>
       <c r="J6" s="42">
-        <v>45879</v>
+        <v>46056</v>
       </c>
       <c r="K6" s="43" t="s">
         <v>16</v>
@@ -1900,13 +1820,13 @@
         <v>17</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N6" s="41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O6" s="41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1920,49 +1840,50 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="40" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
-      <c r="I7" s="48">
-        <v>2</v>
+      <c r="I7" s="41">
+        <f t="shared" ref="I7:I22" ca="1" si="0">RANDBETWEEN(4,14)</f>
+        <v>14</v>
       </c>
       <c r="J7" s="49">
-        <v>45879</v>
+        <v>46056</v>
       </c>
       <c r="K7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="41" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="48" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N7" s="48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O7" s="48" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1976,49 +1897,50 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
-      <c r="I8" s="45">
-        <v>1</v>
+      <c r="I8" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="J8" s="47">
-        <v>45879</v>
+        <v>46056</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="45" t="s">
+      <c r="L8" s="41" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N8" s="45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O8" s="45" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -2032,49 +1954,50 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
-      <c r="I9" s="6">
-        <v>1</v>
+      <c r="I9" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="J9" s="7">
-        <v>45879</v>
+        <v>46056</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="41" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -2093,19 +2016,46 @@
       <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J10" s="7">
+        <v>46056</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -2123,19 +2073,46 @@
       <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I11" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="7">
+        <v>46056</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -2153,19 +2130,46 @@
       <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J12" s="7">
+        <v>46056</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2180,20 +2184,49 @@
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="7">
+        <v>46056</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -2208,20 +2241,49 @@
     </row>
     <row r="14" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J14" s="7">
+        <v>46056</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -2236,20 +2298,49 @@
     </row>
     <row r="15" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="6"/>
+      <c r="B15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J15" s="7">
+        <v>46056</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -2264,20 +2355,49 @@
     </row>
     <row r="16" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J16" s="7">
+        <v>46056</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -2292,20 +2412,49 @@
     </row>
     <row r="17" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="6"/>
+      <c r="B17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J17" s="7">
+        <v>46056</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2320,20 +2469,49 @@
     </row>
     <row r="18" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="6"/>
+      <c r="B18" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I18" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J18" s="7">
+        <v>46056</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2348,20 +2526,49 @@
     </row>
     <row r="19" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J19" s="7">
+        <v>46056</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2374,22 +2581,51 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="15"/>
+      <c r="B20" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J20" s="7">
+        <v>46056</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2402,22 +2638,51 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="15"/>
+      <c r="B21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J21" s="7">
+        <v>46056</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>158</v>
+      </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2430,22 +2695,51 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="15"/>
+      <c r="B22" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J22" s="7">
+        <v>46056</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -29917,7 +30211,7 @@
     <mergeCell ref="B3:O3"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
-  <conditionalFormatting sqref="L8:L9 L6 L11:L27">
+  <conditionalFormatting sqref="L6:L27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -29927,28 +30221,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L19">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L8:L27 L6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L27" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$L$33:$L$36</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K27" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -29968,8 +30242,8 @@
   </sheetPr>
   <dimension ref="A2:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29996,7 +30270,7 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="81" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="51"/>
@@ -30066,12 +30340,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="71" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="52"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="71" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="52"/>
@@ -30090,13 +30364,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="32"/>
-      <c r="E10" s="74" t="str">
+      <c r="E10" s="72" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,5,0)</f>
         <v>Propietario</v>
       </c>
       <c r="F10" s="52"/>
       <c r="G10" s="33"/>
-      <c r="H10" s="74" t="str">
+      <c r="H10" s="72" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,11,0)</f>
         <v>No iniciado</v>
       </c>
@@ -30145,12 +30419,12 @@
         <v>25</v>
       </c>
       <c r="D12" s="32"/>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="71" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="52"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="71" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="52"/>
@@ -30176,17 +30450,17 @@
       <c r="A13" s="19"/>
       <c r="B13" s="26"/>
       <c r="C13" s="31">
-        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O23,8,0)</f>
-        <v>2</v>
+        <f ca="1">VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O23,8,0)</f>
+        <v>6</v>
       </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="74" t="str">
+      <c r="E13" s="72" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,10,0)</f>
         <v>Alta</v>
       </c>
       <c r="F13" s="52"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="74" t="str">
+      <c r="H13" s="72" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,7,0)</f>
         <v>Leonardo Narvaez</v>
       </c>
@@ -30243,31 +30517,31 @@
       <c r="C15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="75" t="str">
+      <c r="D15" s="82" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,3,0)</f>
-        <v>Para almacenar y mantener un inventario actualizado de todos los productos disponibles, permitiendo su posterior gestión (edición, consulta, pedidos, etc.).</v>
+        <v>Registrar nombre, precios, país de origen, stock e imagen del producto</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="36"/>
       <c r="G15" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="75" t="str">
+      <c r="H15" s="82" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,4,0)</f>
-        <v>Para almacenar y mantener un inventario actualizado de todos los productos disponibles, permitiendo su posterior gestión (edición, consulta, pedidos, etc.).</v>
+        <v>Para gestionar el inventario y controlar productos disponibles</v>
       </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="57"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="36"/>
       <c r="L15" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="79" t="str">
+      <c r="M15" s="56" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,6,0)</f>
-        <v>1. Acceder a la opción de productos. 2. Mostrar formulario con campos obligatorios (Nombre, Precio por libra, País de origen, Precio Mayorista/Minorista por libra, Stock inicial, Imagen). 3. Validar que los campos obligatorios estén completos y en rangos/formatos correctos (Precios: 0.01-99.99, Stock: entero &gt; 0). 4. Generar código de producto (Inicial + Secuencial 01-20, sin reutilización). 5. Almacenar el producto en la BD.</v>
+        <v>Ingresar datos del producto en formulario, el sistema genera código automático y valida información antes de guardar</v>
       </c>
-      <c r="N15" s="64"/>
-      <c r="O15" s="65"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="58"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -30284,18 +30558,18 @@
       <c r="A16" s="19"/>
       <c r="B16" s="26"/>
       <c r="C16" s="54"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
       <c r="F16" s="36"/>
       <c r="G16" s="54"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="62"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="79"/>
       <c r="K16" s="36"/>
       <c r="L16" s="54"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="61"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
@@ -30312,18 +30586,18 @@
       <c r="A17" s="19"/>
       <c r="B17" s="26"/>
       <c r="C17" s="55"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="36"/>
       <c r="G17" s="55"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="76"/>
       <c r="K17" s="36"/>
       <c r="L17" s="55"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="71"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="64"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
@@ -30366,42 +30640,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="80" t="str">
+      <c r="D19" s="74"/>
+      <c r="E19" s="65" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,14,0)</f>
-        <v>Registrar datos de un nuevo producto</v>
+        <v>Registrar Producto</v>
       </c>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="82"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="67"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="85"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="70"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="19"/>
     </row>
@@ -30426,29 +30700,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="63" t="str">
+      <c r="D22" s="74"/>
+      <c r="E22" s="80" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,12,0)</f>
-        <v>1. Verificar el registro exitoso en la BD. 2. Intentar guardar sin un campo obligatorio, el campo debe resaltarse en rojo con un mensaje de error. 3. Ingresar un precio fuera de rango o un stock inválido, la casilla debe resaltarse en rojo con un mensaje de alerta. 4. Comprobar que el código de producto generado sea único y siga el formato "Inicial + NXX" (ej. M01). 5. El mensaje final debe ser de "Confirmación de registro".</v>
+        <v>Validar campos obligatorios, rangos de precios (0.01-99.99), stock mayor a 0. Verificar código único generado y mensaje de confirmación.</v>
       </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="75" t="str">
+      <c r="K22" s="74"/>
+      <c r="L22" s="82" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,13,0)</f>
-        <v>Se debe implementar una lógica estricta para asegurar que el código generado (Inicial + Secuencial 01-20) no se reutilice nunca, incluso si el producto es eliminado. Gestionar las excepciones de conectividad de BD y carga del formulario.</v>
+        <v>Códigos de producto no se reutilizan al eliminar</v>
       </c>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="65"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="58"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
@@ -30464,19 +30738,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="68"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -30492,19 +30766,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
       <c r="I24" s="29"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="71"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="64"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
@@ -32063,11 +32337,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -32084,6477 +32353,11 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
-      <formula>"Terminado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
-      <formula>"En proceso"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>"No Iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>'Formato descripción HU'!$B$6:$B$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>C10:C11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47A69AB-C817-4E13-9282-90B68CFA8E7A}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:Z1000"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="2.69921875" customWidth="1"/>
-    <col min="3" max="15" width="10.69921875" customWidth="1"/>
-    <col min="16" max="16" width="2.69921875" customWidth="1"/>
-    <col min="17" max="26" width="9.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:26" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52"/>
-    </row>
-    <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-    </row>
-    <row r="8" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="74" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,5,0)</f>
-        <v>Propietario</v>
-      </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="74" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,11,0)</f>
-        <v>No iniciado</v>
-      </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-    </row>
-    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-    </row>
-    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="31">
-        <f>VLOOKUP('Historia de Usuario (2)'!C10,'Formato descripción HU'!B6:O23,8,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="74" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,10,0)</f>
-        <v>Alta</v>
-      </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="74" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,7,0)</f>
-        <v>Anthony Morales</v>
-      </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-    </row>
-    <row r="14" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-    </row>
-    <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="75" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,3,0)</f>
-        <v>El actor necesita corregir o modificar la información (precios, stock, nombre, etc.) de un producto que ya ha sido registrado previamente.</v>
-      </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="75" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,4,0)</f>
-        <v>Para mantener la exactitud y vigencia de la información del inventario, reflejando cambios en precios, reposiciones o ajustes de stock.</v>
-      </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="79" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,6,0)</f>
-        <v>1. Acceder a la lista de productos y seleccionar la opción de edición para un producto. 2. Mostrar formulario precargado con los datos actuales. 3. Permitir la modificación de todos los campos excepto el código. 4. Validar que los campos obligatorios y de precio/stock cumplan con los rangos y formatos (Stock resultante debe ser ≥0). 5. Actualizar el registro en la BD.</v>
-      </c>
-      <c r="N15" s="64"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-    </row>
-    <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-    </row>
-    <row r="17" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-    </row>
-    <row r="18" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-    </row>
-    <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="80" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,14,0)</f>
-        <v>Modificar datos de un producto existente.</v>
-      </c>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="63" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,12,0)</f>
-        <v>1. Verificar que la lista se cargue y permita editar. 2. Intentar guardar sin un campo obligatorio, el campo debe resaltarse en rojo. 3. Intentar ingresar un nuevo valor de stock que resulte en un valor negativo, el sistema debe mostrar un mensaje de error específico y no permitir guardar. 4. Comprobar que los precios cumplan los rangos (0.01 - 99.99) y el formato de dos decimales. 5. Verificar la actualización de los datos en la base de datos y el mensaje de "Confirmación de actualización".</v>
-      </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="75" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,13,0)</f>
-        <v>Se debe poner especial atención a la validación del Stock en la actualización para evitar valores negativos. Las validaciones de precios y obligatoriedad deben ser las mismas que en el registro (R1.1). Gestionar las excepciones de carga de listas/formularios y conectividad de BD.</v>
-      </c>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-    </row>
-    <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-    </row>
-    <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-    </row>
-    <row r="25" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-    </row>
-    <row r="26" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-    </row>
-    <row r="27" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-    </row>
-    <row r="28" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-    </row>
-    <row r="29" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-    </row>
-    <row r="30" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-    </row>
-    <row r="31" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-    </row>
-    <row r="32" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-    </row>
-    <row r="33" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-    </row>
-    <row r="34" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-    </row>
-    <row r="35" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-    </row>
-    <row r="36" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-    </row>
-    <row r="37" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-    </row>
-    <row r="38" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-    </row>
-    <row r="39" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-    </row>
-    <row r="40" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-    </row>
-    <row r="41" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-    </row>
-    <row r="42" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-    </row>
-    <row r="43" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-    </row>
-    <row r="44" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-    </row>
-    <row r="45" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-    </row>
-    <row r="46" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-    </row>
-    <row r="47" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-    </row>
-    <row r="48" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-    </row>
-    <row r="49" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-    </row>
-    <row r="50" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-    </row>
-    <row r="51" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-    </row>
-    <row r="52" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-    </row>
-    <row r="53" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-    </row>
-    <row r="54" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-    </row>
-    <row r="55" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-    </row>
-    <row r="56" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:J17"/>
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:O17"/>
-    <mergeCell ref="C19:D20"/>
     <mergeCell ref="E19:O20"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="E22:H24"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="L22:O24"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"Terminado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>"En proceso"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"No Iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{2D6CFCF8-B954-4AE8-8B2A-D22A502A2816}">
-          <x14:formula1>
-            <xm:f>'Formato descripción HU'!$B$6:$B$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>C10:C11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87343460-2DB5-4093-8A55-9295D57D9568}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:Z1000"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:O24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="2.69921875" customWidth="1"/>
-    <col min="3" max="15" width="10.69921875" customWidth="1"/>
-    <col min="16" max="16" width="2.69921875" customWidth="1"/>
-    <col min="17" max="26" width="9.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:26" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52"/>
-    </row>
-    <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-    </row>
-    <row r="8" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="74" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,5,0)</f>
-        <v>Propietario</v>
-      </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="74" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,11,0)</f>
-        <v>No iniciado</v>
-      </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-    </row>
-    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-    </row>
-    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="31">
-        <f>VLOOKUP('Historia de Usuario (3)'!C10,'Formato descripción HU'!B6:O23,8,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="74" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,10,0)</f>
-        <v>Alta</v>
-      </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="74" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,7,0)</f>
-        <v>Julio Viche</v>
-      </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-    </row>
-    <row r="14" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-    </row>
-    <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="75" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,3,0)</f>
-        <v>El sistema deberá permitir la consulta y búsqueda por código o nombre de los productos.</v>
-      </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="75" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,4,0)</f>
-        <v>Para verificar el stock, precios, y otros datos del producto antes de realizar pedidos, actualizaciones, o simplemente para conocer la información disponible.</v>
-      </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="86" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,6,0)</f>
-        <v>1. Acceder a la lista de productos. 2. Permitir la búsqueda por Código (exacto) o Nombre (parcial). 3. Priorizar la búsqueda por código si el formato lo sugiere. 4. Mostrar la lista de coincidencias o el detalle completo del producto encontrado.</v>
-      </c>
-      <c r="N15" s="76"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-    </row>
-    <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-    </row>
-    <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-    </row>
-    <row r="18" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-    </row>
-    <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="80" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,14,0)</f>
-        <v>Consultar y buscar productos registrados.</v>
-      </c>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="63" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,12,0)</f>
-        <v>1. Buscar por un código exacto, debe mostrar el detalle único del producto. 2. Buscar por una coincidencia parcial de nombre, debe mostrar una lista de resultados. 3. Buscar por un criterio inexistente, debe mostrar el mensaje de advertencia de "No existe ningún producto con ese criterio". 4. Verificar el manejo de la excepción de no carga de la lista.</v>
-      </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="75" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,13,0)</f>
-        <v>La lógica de búsqueda debe priorizar la coincidencia de código antes de la coincidencia parcial de nombre. Se debe asegurar que la información cargada sea la más reciente de la base de datos.</v>
-      </c>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-    </row>
-    <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-    </row>
-    <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-    </row>
-    <row r="25" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-    </row>
-    <row r="26" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-    </row>
-    <row r="27" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-    </row>
-    <row r="28" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-    </row>
-    <row r="29" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-    </row>
-    <row r="30" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-    </row>
-    <row r="31" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-    </row>
-    <row r="32" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-    </row>
-    <row r="33" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-    </row>
-    <row r="34" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-    </row>
-    <row r="35" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-    </row>
-    <row r="36" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-    </row>
-    <row r="37" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-    </row>
-    <row r="38" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-    </row>
-    <row r="39" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-    </row>
-    <row r="40" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-    </row>
-    <row r="41" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-    </row>
-    <row r="42" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-    </row>
-    <row r="43" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-    </row>
-    <row r="44" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-    </row>
-    <row r="45" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-    </row>
-    <row r="46" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-    </row>
-    <row r="47" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-    </row>
-    <row r="48" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-    </row>
-    <row r="49" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-    </row>
-    <row r="50" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-    </row>
-    <row r="51" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-    </row>
-    <row r="52" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-    </row>
-    <row r="53" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-    </row>
-    <row r="54" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-    </row>
-    <row r="55" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-    </row>
-    <row r="56" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="21">
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="E22:H24"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="L22:O24"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"Atrasado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"Terminado"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"En proceso"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>"No Iniciado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{DE283704-0CE1-4B1D-8066-39396CFAA244}">
-          <x14:formula1>
-            <xm:f>'Formato descripción HU'!$B$6:$B$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>C10:C11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5667BDE-1DA1-42D3-8554-F63D27F4A1AB}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:Z1000"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15:O17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="2.69921875" customWidth="1"/>
-    <col min="3" max="15" width="10.69921875" customWidth="1"/>
-    <col min="16" max="16" width="2.69921875" customWidth="1"/>
-    <col min="17" max="26" width="9.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:26" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52"/>
-    </row>
-    <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-    </row>
-    <row r="8" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="74" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,5,0)</f>
-        <v>Propietario</v>
-      </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="74" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,11,0)</f>
-        <v>No iniciado</v>
-      </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-    </row>
-    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-    </row>
-    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="31">
-        <f>VLOOKUP('Historia de Usuario (4)'!C10,'Formato descripción HU'!B6:O23,8,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="74" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,10,0)</f>
-        <v>Alta</v>
-      </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="74" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,7,0)</f>
-        <v>Leonardo Narvaez</v>
-      </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-    </row>
-    <row r="14" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-    </row>
-    <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="75" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,3,0)</f>
-        <v>El sistema deberá permitir la desactivación lógica de un producto.</v>
-      </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="75" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,4,0)</f>
-        <v>Para mantener la lista de productos activos limpia y evitar que productos obsoletos o descontinuados puedan ser asociados a nuevos pedidos.</v>
-      </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="79" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,6,0)</f>
-        <v>1. Acceder a la lista de productos. 2. Seleccionar la opción de eliminar para un producto. 3. Mostrar mensaje de confirmación/advertencia. 4. Si se confirma, actualizar el estado del producto en la BD para desactivarlo lógicamente (cambio de estado/ flag de activo a inactivo). 5. Mostrar mensaje de confirmación.</v>
-      </c>
-      <c r="N15" s="64"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-    </row>
-    <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-    </row>
-    <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-    </row>
-    <row r="18" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-    </row>
-    <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="80" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,14,0)</f>
-        <v>Desactivar lógicamente un producto del inventario.</v>
-      </c>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="63" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,12,0)</f>
-        <v>1. Verificar que al seleccionar eliminar se muestre el mensaje de advertencia y confirmación. 2. Verificar que al confirmar la eliminación, el registro no sea eliminado físicamente de la BD, sino que solo se actualice su estado a 'Inactivo'/'Eliminado' o similar. 3. Verificar que el producto ya no aparezca en la lista de productos activos (u otras consultas de productos disponibles).</v>
-      </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="75" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,13,0)</f>
-        <v>Es un proceso de eliminación lógica (actualización de estado, no borrado físico del registro). El sistema debe asegurar que el producto no pueda ser usado en nuevos pedidos una vez desactivado.</v>
-      </c>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-    </row>
-    <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-    </row>
-    <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-    </row>
-    <row r="25" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-    </row>
-    <row r="26" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-    </row>
-    <row r="27" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-    </row>
-    <row r="28" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-    </row>
-    <row r="29" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-    </row>
-    <row r="30" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-    </row>
-    <row r="31" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-    </row>
-    <row r="32" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-    </row>
-    <row r="33" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-    </row>
-    <row r="34" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-    </row>
-    <row r="35" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-    </row>
-    <row r="36" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-    </row>
-    <row r="37" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-    </row>
-    <row r="38" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-    </row>
-    <row r="39" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-    </row>
-    <row r="40" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-    </row>
-    <row r="41" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-    </row>
-    <row r="42" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-    </row>
-    <row r="43" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-    </row>
-    <row r="44" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-    </row>
-    <row r="45" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-    </row>
-    <row r="46" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-    </row>
-    <row r="47" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-    </row>
-    <row r="48" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-    </row>
-    <row r="49" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-    </row>
-    <row r="50" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-    </row>
-    <row r="51" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-    </row>
-    <row r="52" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-    </row>
-    <row r="53" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-    </row>
-    <row r="54" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-    </row>
-    <row r="55" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-    </row>
-    <row r="56" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="E22:H24"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="L22:O24"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -38577,7 +32380,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{4C05D38C-9A2C-409B-90AD-8ECA70BAA7B0}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Formato descripción HU'!$B$6:$B$23</xm:f>
           </x14:formula1>

--- a/PREGAME/1. ELICITACION/1.3 Historias de Usuario/G6ª_Matriz_de_Marco_de_Trabajo_HU_V1.0.xlsx
+++ b/PREGAME/1. ELICITACION/1.3 Historias de Usuario/G6ª_Matriz_de_Marco_de_Trabajo_HU_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caeta\Documents\6to\27837_G6_ADS\PREGAME\1. ELICITACION\1.3 Historias de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6D0ABC-0681-4B8F-93E0-EE4DD8FEFD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69AD45B-E877-46E5-849E-23906442FCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
@@ -1192,7 +1192,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1219,6 +1230,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1227,35 +1256,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1594,8 +1594,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="I7" s="41">
         <f t="shared" ref="I7:I22" ca="1" si="0">RANDBETWEEN(4,14)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J7" s="49">
         <v>46056</v>
@@ -1917,12 +1917,12 @@
       <c r="G8" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="45" t="s">
-        <v>39</v>
+      <c r="H8" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="I8" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="47">
         <v>46056</v>
@@ -1974,12 +1974,12 @@
       <c r="G9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="6" t="s">
         <v>169</v>
       </c>
       <c r="I9" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J9" s="7">
         <v>46056</v>
@@ -2031,8 +2031,8 @@
       <c r="G10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>169</v>
+      <c r="H10" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I10" s="41">
         <f t="shared" ca="1" si="0"/>
@@ -2088,8 +2088,8 @@
       <c r="G11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>170</v>
+      <c r="H11" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="I11" s="41">
         <f t="shared" ca="1" si="0"/>
@@ -2145,7 +2145,7 @@
       <c r="G12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="48" t="s">
         <v>168</v>
       </c>
       <c r="I12" s="41">
@@ -2202,12 +2202,12 @@
       <c r="G13" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>39</v>
+      <c r="H13" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="I13" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J13" s="7">
         <v>46056</v>
@@ -2259,12 +2259,12 @@
       <c r="G14" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>168</v>
+      <c r="H14" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I14" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J14" s="7">
         <v>46056</v>
@@ -2317,11 +2317,11 @@
         <v>105</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="I15" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="7">
         <v>46056</v>
@@ -2374,11 +2374,11 @@
         <v>112</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="I16" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J16" s="7">
         <v>46056</v>
@@ -2431,11 +2431,11 @@
         <v>119</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I17" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J17" s="7">
         <v>46056</v>
@@ -2487,12 +2487,12 @@
       <c r="G18" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>169</v>
+      <c r="H18" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I18" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J18" s="7">
         <v>46056</v>
@@ -2544,12 +2544,12 @@
       <c r="G19" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>168</v>
+      <c r="H19" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="I19" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J19" s="7">
         <v>46056</v>
@@ -2602,11 +2602,11 @@
         <v>140</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="I20" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J20" s="7">
         <v>46056</v>
@@ -2659,11 +2659,11 @@
         <v>155</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I21" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J21" s="7">
         <v>46056</v>
@@ -2716,11 +2716,11 @@
         <v>162</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I22" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J22" s="7">
         <v>46056</v>
@@ -30242,7 +30242,7 @@
   </sheetPr>
   <dimension ref="A2:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -30270,7 +30270,7 @@
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="51"/>
@@ -30340,12 +30340,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="73" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="52"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="73" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="52"/>
@@ -30364,13 +30364,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="32"/>
-      <c r="E10" s="72" t="str">
+      <c r="E10" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,5,0)</f>
         <v>Propietario</v>
       </c>
       <c r="F10" s="52"/>
       <c r="G10" s="33"/>
-      <c r="H10" s="72" t="str">
+      <c r="H10" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,11,0)</f>
         <v>No iniciado</v>
       </c>
@@ -30419,12 +30419,12 @@
         <v>25</v>
       </c>
       <c r="D12" s="32"/>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="73" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="52"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="73" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="52"/>
@@ -30454,13 +30454,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="72" t="str">
+      <c r="E13" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,10,0)</f>
         <v>Alta</v>
       </c>
       <c r="F13" s="52"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="72" t="str">
+      <c r="H13" s="74" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,7,0)</f>
         <v>Leonardo Narvaez</v>
       </c>
@@ -30517,31 +30517,31 @@
       <c r="C15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="82" t="str">
+      <c r="D15" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,3,0)</f>
         <v>Registrar nombre, precios, país de origen, stock e imagen del producto</v>
       </c>
-      <c r="E15" s="74"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="36"/>
       <c r="G15" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="82" t="str">
+      <c r="H15" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,4,0)</f>
         <v>Para gestionar el inventario y controlar productos disponibles</v>
       </c>
-      <c r="I15" s="83"/>
-      <c r="J15" s="74"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="36"/>
       <c r="L15" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="56" t="str">
+      <c r="M15" s="79" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,6,0)</f>
         <v>Ingresar datos del producto en formulario, el sistema genera código automático y valida información antes de guardar</v>
       </c>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="65"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -30558,18 +30558,18 @@
       <c r="A16" s="19"/>
       <c r="B16" s="26"/>
       <c r="C16" s="54"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="36"/>
       <c r="G16" s="54"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="79"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="36"/>
       <c r="L16" s="54"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="61"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="68"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
@@ -30586,18 +30586,18 @@
       <c r="A17" s="19"/>
       <c r="B17" s="26"/>
       <c r="C17" s="55"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="36"/>
       <c r="G17" s="55"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="76"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="36"/>
       <c r="L17" s="55"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="64"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="71"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
@@ -30640,42 +30640,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="65" t="str">
+      <c r="D19" s="57"/>
+      <c r="E19" s="80" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,14,0)</f>
         <v>Registrar Producto</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="67"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="82"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="70"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="85"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="19"/>
     </row>
@@ -30700,29 +30700,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="80" t="str">
+      <c r="D22" s="57"/>
+      <c r="E22" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,12,0)</f>
         <v>Validar campos obligatorios, rangos de precios (0.01-99.99), stock mayor a 0. Verificar código único generado y mensaje de confirmación.</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="77" t="s">
+      <c r="J22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="74"/>
-      <c r="L22" s="82" t="str">
+      <c r="K22" s="57"/>
+      <c r="L22" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,13,0)</f>
         <v>Códigos de producto no se reutilizan al eliminar</v>
       </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="65"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
@@ -30738,19 +30738,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="68"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -30766,19 +30766,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
       <c r="I24" s="29"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="64"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="71"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
@@ -32337,6 +32337,11 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -32353,11 +32358,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
